--- a/pcxzf/pcxzf/wangshun/平昌要闻.xlsx
+++ b/pcxzf/pcxzf/wangshun/平昌要闻.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,141 +424,133 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：“三举措”写好土地征供大文章</t>
+          <t>办好“微讲堂” 切实提能力</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>胡文彩</t>
-        </is>
-      </c>
+          <t>经开区管委会</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粉壁镇：“秸”尽全力，防患未“燃”</t>
+          <t>县市场监督管理局：“三强化”护航“两考”食药安全</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>岳瑞</t>
-        </is>
-      </c>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>我县知识产权管理体系认证（贯标）企业实现“0”突破</t>
+          <t>县交运局：“爱心送考”不缺席，交通助梦再起航</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>马琴</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>县司法局：应诉提质效 护企助营商</t>
+          <t>县网信办多形式开展网络举报辟谣宣传周暨网络普法行活动</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>县司法局</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>何璐</t>
-        </is>
-      </c>
+          <t>网信办</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>邱家镇：打好“组合拳”，整治“三合一”</t>
+          <t>云台镇：多措并举，抓实夏季防溺水</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>任佳利</t>
-        </is>
-      </c>
+          <t>云台镇人民政府</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>金宝街道：狠抓“三领域”做好“五一”节前安全隐患排查</t>
+          <t>我县创新机制巩固提升茶产业基地质效</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-28</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>县农业农村局</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>胡智臻、徐勇</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>张勋带队赴成都开展投资促进活动</t>
+          <t>平昌县开展2024年全国“放鱼日”同步增殖放流活动</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>县招商局</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -566,206 +558,210 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县探索建立企业服务专员机制 助力企业发展</t>
+          <t>平昌县召开2024年普通高考监考工作动员会</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>县行政审批和数据局</t>
+          <t>县教育科技局</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>陈周</t>
+          <t>王玉蓉</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>县不动产登记中心：党员先锋队贴心上门，全力推进“清零行动”</t>
+          <t>县供销社：“五着力”发展白酒产业</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县供销合作社联合社</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>王舟</t>
+          <t>何秀平</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>县养路段：党建引领“六路同行”公路管养蓄势赋能</t>
+          <t>澌岸镇：“四个强化”推进秸秆禁烧工作落实落细</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>局党建办、县养路段</t>
+          <t>王杉文</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>青云镇：“三到位”抓实抓牢畜牧业安全生产工作</t>
+          <t>西兴镇：保护传统村落，传承历史文化</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>陈术芝</t>
+          <t>荣芸</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>我县召开供水供电供气企业计量工作提醒谈话会</t>
+          <t>万学成督查2024年高中考备考工作</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>向渝 孙云霞</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>县水利局：深入田间地头指导 保障粮食稳产增收</t>
+          <t>江口醇酒出口韩国</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县商务局</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>李宣</t>
+          <t>苟兰亭</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>江口街道：“四抓手”开展节前安全检查</t>
+          <t>兰草镇：筑牢夏季防溺水安全“防护墙”</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>兰草镇人民政府</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>岳丹</t>
+          <t>谢欣彤</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江家口镇“三步走”推动环境质量大提升</t>
+          <t>白衣镇“疏堵结合”打好秸秆禁烧“组合拳”</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>蒲璇</t>
+          <t>刘清平</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>岩口镇：以“三抓三力”为举措，助力集体经济发展</t>
+          <t>平昌县链接高端医疗资源“提能惠民”</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县卫生健康局</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>郑川</t>
+          <t>潘铄灵</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>我县国债水利项目有序推进</t>
+          <t>县水利局：多措并举优化净化全县水生态环境</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -775,271 +771,279 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>李顺</t>
+          <t>李怀明</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>平昌县“多措并举”跑出土地整治项目加速度</t>
+          <t>得胜镇“五聚焦”，持续推动集体经济发展</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>得胜镇人民政府</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>杨道勇</t>
+          <t>杨舵</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：以案为鉴知红线  防微杜渐守底线</t>
+          <t>县住建局：多措并举，为中高考学子按下“静音键”</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县住房和城乡建设局</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>沈略</t>
+          <t>李川</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>县民政局“三强化”推动党纪学习教育走深走实</t>
+          <t>岩口镇：多措并举防溺水，凝心聚力保平安</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>曹丽</t>
+          <t>李袁明</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>佛楼镇：“三强化”全力壮大肉牛产业</t>
+          <t>粉壁镇：多措并举防溺水，筑牢生命安全网</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>袁华</t>
+          <t>岳瑞</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>江口街道：“三步走”抓实耕地保护工作</t>
+          <t>平昌县“三个到位”推进“四大活动”</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>县退役军人事务局</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>何晓红</t>
+          <t>杨玉霞</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>三十二梁镇：“三个全面”扎实做好安全生产风险隐患大起底工作</t>
+          <t>望京镇：“三个狠抓”守牢安全生产“基本盘”</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>三十二梁镇人民政府</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>蔡凤琼</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>青云镇：立足“三宣”，扎实开展安全教育宣传活动</t>
+          <t>金宝街道：巧做“茶文章” 助力乡村振兴</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>郑绗</t>
-        </is>
-      </c>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>县公安局公安户籍窗口全面入驻市民之家</t>
+          <t>平昌县“三加强三到位”全力护航高考</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>县公安局</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>县教育科技局</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>王玉蓉 向瑜</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：强化党纪教育  筑牢廉洁防线</t>
+          <t>县综合行政执法局：整治噪声扰民 营造宜居环境</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县综合行政执法局</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>沈略</t>
+          <t>雷浩彬</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>响滩镇：多措并举齐发力 环境整治见实效</t>
+          <t>三十二梁镇“三强化”夯实生态环境保护工作</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>响滩镇人民政府</t>
+          <t>三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>李清川</t>
+          <t>李小雨</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>县综合行政执法局：打出整治“组合拳” 规范共享电单车运营秩序</t>
+          <t>县水利局：以“防灾”为抓手，抓实“减灾”新举措</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>雷浩彬</t>
+          <t>许文佳 李怀明</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>金宝新区：打好治理“组合拳”，提升城市品质</t>
+          <t>兰草镇：以“河长制”促“河常治”</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>金宝新区管理委员会</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>韩海军</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>佛楼镇：多措并举筑牢交通安全防线</t>
+          <t>佛楼镇：“三强三到位”筑牢地灾防治安全防线</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1049,743 +1053,751 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>张弘</t>
+          <t>陈沭琎</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>镇龙镇：三举措筑牢筑实安全“防火墙</t>
+          <t>江口水乡管理局：三个“早”字抓好防溺水工作</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>江口水乡水利风景区建设管理局</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>康冰峰</t>
+          <t>刘芹</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>省林草局调研组来平调研指导退耕还林工作</t>
+          <t>白衣镇“三个三”扎实做好城乡环境大提升工作</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>县林业局</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>张林成</t>
+          <t>刘清平</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>县委组织部召开党纪学习教育部署启动会</t>
+          <t>县水利局：扎实开展防汛安全隐患排查整治</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>县委组织部</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>唐雄</t>
+          <t>黄润红</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>江口街道：“五抓”“五确保”做好春防工作</t>
+          <t>佛楼镇：打好“三张牌”构筑防灾减灾安全防线</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>张旭晨</t>
+          <t>刘芋伶、王小红</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>县航务海事发展中心“三强化”扎实开展船舶检验工作</t>
+          <t>泥龙镇：“三个一”筑牢 “ 防汛减灾 ” 安全堡垒</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>苟海英</t>
+          <t>王通文</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>兰草镇：三举措扎实开展森林防灭火工作</t>
+          <t>省工商联副主席胡景寿来平调研托底性帮扶工作</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>谢欣彤</t>
-        </is>
-      </c>
+          <t>县工商联</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>江口街道：开展校园安全检查，筑牢校园安全防线</t>
+          <t>兰草镇：筑牢夏季防溺水安全“防护墙”</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
+          <t>兰草镇人民政府</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>岳丹</t>
+          <t>谢欣彤</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>我县聚焦“三紧”  抓实项目建设</t>
+          <t>平昌县获批建设用地34.3233公顷</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>县国有资产管理局</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>县自然资源和规划局</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>胡文彩</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>我县多举措提升农村生态文明建设水平</t>
+          <t>平昌县首例跨行“带押过户”成功办理</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>县乡村振兴局</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>王远俊</t>
+          <t>王舟</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>县综合行政执法局：实施三大行动，助力新型城镇化示范县建设</t>
+          <t>平昌县创新开展“安全三字经”推广活动</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县教育科技局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>黑日友拉</t>
+          <t>白京</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>澌岸镇：“三聚焦三推动”助力城乡环境大提升工作</t>
+          <t>佛楼镇：三举措推进“河长制”工作走深走实</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>岳琳</t>
+          <t>李杨</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>龙岗镇：务实举措筑牢森林防灭火安全屏障</t>
+          <t>我县召开涉及不平等对待企业规范性文件 政策清理工作专题会</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>龙岗镇人民政府</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>县司法局</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>张玉芳</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>西兴镇：多措并举推动茶叶产业发展</t>
+          <t>县交运局“三化”夯实中高考运输服务保障工作</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>荣芸</t>
+          <t>唐耀宗</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>青云镇：优化营商环境 激发市场活力</t>
+          <t>我县今年国债地灾项目累计补助投资1.3055亿元</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>杜阳</t>
+          <t>袁健</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>我县全力备战，扎实做好汛前准备工作</t>
+          <t>县自然资源和规划局：全力做好汛期地灾防治工作</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>许文佳</t>
+          <t>唐通鑫</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>金宝街道:开展“4.15”全民国家安全教育日宣传活动</t>
+          <t>得胜司法所：三举措助力营造法治化营商环境</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>县司法局</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>袁侨</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>让“托管”不“脱管”</t>
+          <t>岩口镇：消防宣传进校园，共筑安全“防火墙”</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>向伟成</t>
+          <t>李袁明</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>用好“三笔”，助推城市管理提质增效</t>
+          <t>笔山镇：小小青花椒撬开致富大门</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>笔山镇人民政府</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>崔宝平</t>
+          <t>杜明哲</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>佛楼镇：深入开展微小空间隐患排查整治行动</t>
+          <t>我县开展“知识产权服务万里行”进企业活动</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>黄昌源</t>
-        </is>
-      </c>
+          <t>县市场监督管理局</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>金通工程谱新篇 交旅融合绽新颜</t>
+          <t>驷马镇：“法律明白人”夯实法治基础</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>苟中良、彭乔木</t>
+          <t>何俊</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39个欠发达县域托底性帮扶工作迎来年度考核“指挥棒”</t>
+          <t>兰草镇：“三举措”筑牢汛期地质灾害防线</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川观新闻</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>谢欣彤</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>邱家镇抢抓农时打好春耕主动仗</t>
+          <t>我县以研学赋能景区提质增效</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
+          <t>县文化广播电视体育和旅游局</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>张姿柔</t>
+          <t>杜小乔</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>县司法局:“四进”活动推动法治宣传出实效</t>
+          <t>佛楼镇：“1+2+3”机制推动党纪学习教育走深走实</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>县司法局</t>
+          <t>县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>何俊</t>
+          <t>陈述琎</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>泥龙镇:“三个三”扎实做好城乡环境大提升工作</t>
+          <t>灵山镇：多措并举打好秸秆禁烧“组合拳”</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>孙庶翔</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>青云镇：“三加强三突出”筑牢农村道路交通安全防线</t>
+          <t>邱家镇：多措并举筑牢秸秆禁烧“防火墙”</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
+          <t>邱家镇人民政府</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>杨天</t>
+          <t>邵崟雄</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>县疾控中心积极开展饮用水水质监测工作</t>
+          <t>县审计局多措并举推进党纪学习教育</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
+          <t>县审计局</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>李佳佳</t>
+          <t>李通平</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>县民政局“四举措”抓实城乡环境大提升工作</t>
+          <t>凉山村寨纪行</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>新华社</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>符春雷</t>
+          <t>张旭东 谢佼 尹恒</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>西兴镇：四部曲抓实“三合一”场所消防安全</t>
+          <t>平昌县在全国2023年青少年科学调查体验活动斩获佳绩</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>王柏旭</t>
-        </is>
-      </c>
+          <t>平昌发布</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>青云镇：“三化”行动抓整治 助推镇村焕新颜</t>
+          <t>平昌县第八届青少年智力运动“飞叠杯”挑战赛圆满落幕</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
+          <t>县教育科技局</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>杨春</t>
+          <t>王玉蓉</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>我县召开平昌中学创建省一级示范性普通高中专题会</t>
+          <t>佛楼镇：多措并举做好学生防溺水工作</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>县教育科技和体育局</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>王超</t>
+          <t>余长江、刘岩</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>平昌县“五加强”扎实开展动物春防工作</t>
+          <t>县水利局“三效合一”推动安全生产工作</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>县动监所</t>
+          <t>张涛</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>县林业局：发挥行业力量 助推城乡环境全面提升</t>
+          <t>平昌县召开创建“健康四川示范县”工作专题会</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>县林业局</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>曾乐琼</t>
-        </is>
-      </c>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>做好发展新质生产力这篇大文章</t>
+          <t>灵山镇：“四个到位”全力抓好防溺水工作</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>灵山镇人民政府</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>钟华论</t>
+          <t>邓仕林</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌县“三举措”破解“用工荒”助力茶产业高质量发展</t>
+          <t>平昌水利多点发力  项目建设齐头并进</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>县水利局</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>李汶芳</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>平昌县把牢“三关”打赢春耕第一仗</t>
+          <t>我县油菜亩产再创新高</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1795,647 +1807,791 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>徐勇 陈汉林</t>
+          <t>王义斌  胡洲</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>县综合行政执法局：“小驿站”发挥“大作用” 服务群众“出实招”</t>
+          <t>金宝街道：扎实推进高标准农田建设， 夯实粮食丰产“耕”基</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>崔宝平</t>
-        </is>
-      </c>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>我县多措并举开展森林防火隐患排查整治工作</t>
+          <t>学党纪 明规矩 助农插秧促振兴</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>县林业局</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>王和平</t>
+          <t>白蓉华</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>平昌首次引进“就地热再生”技术  助力道路养护绿色发展</t>
+          <t>平昌县一季度招商引资成效显</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
+          <t>县招商局</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>赵晓东</t>
+          <t>易丹</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>省交通运输厅印发方案
-全面推进39个欠发达县域交通运输高质量发展</t>
+          <t>灵山镇五措施抓实春季秸秆禁烧工作</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>四川发布</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>丁帮魏</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>涵水镇：森林防灭火  我们在行动</t>
+          <t>平昌县第四次全国文物普查领导小组第一次会议召开</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>涵水镇人民政府</t>
+          <t>县文化广播电视体育和旅游局</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>万欣睿</t>
+          <t>杨希彬</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>佛楼镇：防患未“燃”，筑牢森林防灭火安全防线</t>
+          <t>泥龙镇：下好“三步棋”，助推党纪学习教育走深走实</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>刘芋伶</t>
+          <t>王通文</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>岩口镇：环境整治“动起来”美丽环境“靓起来”</t>
+          <t>我县加快推动托底性帮扶项目建设</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县发展和改革局</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>李姣姣</t>
+          <t>杜明星</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>兰草镇：交通劝导“小叮嘱” 守护道路“大安全”</t>
+          <t>佛楼镇：“三个到位”扎实开展秸秆禁烧工作</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>白成</t>
+          <t>莫勤</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>双桥水库工程竣工移民安置通过终验前现场检查验收</t>
+          <t>县综合行政执法局：全力护航“天心蓝” “夏季攻势”正当时</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>县综合行政执法局</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>唐英</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>我县“四个一批”推动产业振兴</t>
+          <t>“平昌青芽茶”荣登第十三届四川国际茶博会舞台</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>县乡村振兴局</t>
+          <t>平昌县农业农村局</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>王远俊</t>
+          <t>胡智臻   廖小宁</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>县自然资源和规划局：打好地灾防治主动仗，筑牢人民安全防护墙</t>
+          <t>平昌县：“四举措”推进宜居宜业宜游和美乡村建设</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>袁健</t>
+          <t>胡洲</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>县综合行政执法局：全力推动城乡环境大提升行动</t>
+          <t>导师巡诊“把脉” 服务创新创业</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>黑日友拉</t>
+          <t>郭娟</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>邱家镇：“三全”机制推动城乡环境大提升</t>
+          <t>县公路养护管理段：坚持“四化”并举扎实推进路域环境整治</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>李成志</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>张勋带队赴上海等地开展投资促进活动</t>
+          <t>县交运局：环境整治不停歇  扮靓公路“风景线”</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>县招商局</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>曾欣</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>我县高效节水保“春灌”  精准服务迎“春耕”</t>
+          <t>县综合行政执法局：规范校园周边秩序 营造良好育人环境</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>县水利局</t>
+          <t>县综合行政执法局</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>李宣</t>
+          <t>雷浩彬</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>平昌县扎实推进生态环境问题大排查大整治</t>
+          <t>平昌县开展2024年防灾减灾日宣传活动</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>刘林</t>
-        </is>
-      </c>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>服务老区，让群众“挺起脊梁”，享受健康生活！</t>
+          <t>团县委：“三个聚焦”激发青年干事创业活力</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>平昌团县委</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>张军</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>县委第四巡察组临时党支部与巴山农旅集团机关支部开展“弘扬雷锋精神·倡导时代新风”支部共建活动</t>
+          <t>三十二梁镇：“三个到位” 扎实开展地质灾害夜间应急演练</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>巴山农旅集团</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>杜磊</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>佛头山管委会：把准方向目标，凝心聚力推动园区高质量发展</t>
+          <t>习近平结束对法国、塞尔维亚和匈牙利国事访问回到北京</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>佛头山管理委员会</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>赖丽名</t>
-        </is>
-      </c>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局：防患于未“燃”，守护森林安全</t>
+          <t>邱家镇出实招筑牢防汛“安全堤”</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>邱家镇人民政府</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>蔡承华 王美欣</t>
+          <t>张姿柔</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>西兴镇：春茶采摘季启幕 茶农巧手采撷 “第一鲜”</t>
+          <t>江家口镇：念好“三字经”做实消防隐患排查整治工作</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-11</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
+          <t>江家口镇人民政府</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>王超</t>
+          <t>李智鹏</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>我县13个美团“乡村儿童操场”落成投用</t>
+          <t>县就业局：导师巡诊“把脉” 服务创新创业</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>县教育科技和体育局</t>
+          <t>县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>罗利</t>
+          <t>郭娟</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>平昌县“小演练”助推“大安全”</t>
+          <t>县民政局：加强低收入人口动态监测和分层分类救助帮扶</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>米栢林</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>岳家镇：环境提升出真招  晾晒比拼争先进</t>
+          <t>我县做好数据审核，把好“五经普”数据质量关</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>岳家镇人民政府</t>
+          <t>县统计局</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>陈冬梅</t>
+          <t>刘华平</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>粉壁镇：发展订单式农业 激发产业活力</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>数量</t>
-        </is>
-      </c>
+          <t>2024-05-09</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>县自然资源和规划局</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>6</v>
-      </c>
+          <t>习近平在塞尔维亚媒体发表署名文章
+让铁杆友谊之光照亮中塞合作之路</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
+          <t>江家口镇：落实底线责任，织密织牢防汛减灾安全网</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>岳俭君</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2</v>
+          <t>习近平同法国总统马克龙在上比利牛斯省举行中法元首小范围会晤</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>韩冰 刘芳</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>县司法局</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
+          <t>习近平同马克龙出席中法企业家委员会第六次会议闭幕式并致辞</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>韩梁 马峥</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>3</v>
+          <t>习近平同法国总统马克龙共同会见记者</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>刘华 郝薇薇</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2</v>
+          <t>平昌县帮扶退捕渔民转产就业经验做法入选全国退捕渔民安置保障典型案例</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>陈锦</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>县招商局</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2</v>
-      </c>
+          <t>小桥街社区卫生服务中心成功创建省级社区医院！</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>1</v>
+          <t>习近平同法国总统马克龙举行会谈</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>倪四义 田帆</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>县交通运输局</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>4</v>
-      </c>
+          <t>金宝街道：抢抓农时，让驻村变“助春”</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>5</v>
+          <t>佛楼镇：“四举措”做实防汛减灾工作</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>向单单</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>县水利局</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>5</v>
+          <t>县交运局：“三到位”落实落细交通运输领域安全生产治本攻坚三年行动</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>县交通运输局</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>何家溢</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>江口街道办事处</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>4</v>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>江家口镇人民政府</t>
+          <t>经开区管委会</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2445,7 +2601,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>岩口镇人民政府</t>
+          <t>县市场监督管理局</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2455,27 +2611,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>县民政局</t>
+          <t>县交通运输局</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>佛楼镇人民政府</t>
+          <t>网信办</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>三十二梁镇人民政府</t>
+          <t>云台镇人民政府</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2485,37 +2641,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>县公安局</t>
+          <t>县农业农村局</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>响滩镇人民政府</t>
+          <t>县教育科技局</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>县综合行政执法局</t>
+          <t>县供销合作社联合社</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>金宝新区管理委员会</t>
+          <t>澌岸镇人民政府</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2525,7 +2681,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>镇龙镇人民政府</t>
+          <t>西兴镇人民政府</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2535,57 +2691,57 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>县林业局</t>
+          <t>县商务局</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>县委组织部</t>
+          <t>兰草镇人民政府</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>白衣镇人民政府</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>县国有资产管理局</t>
+          <t>县卫生健康局</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>县乡村振兴局</t>
+          <t>县水利局</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>澌岸镇人民政府</t>
+          <t>得胜镇人民政府</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2595,7 +2751,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>龙岗镇人民政府</t>
+          <t>县住房和城乡建设局</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2605,27 +2761,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>西兴镇人民政府</t>
+          <t>岩口镇人民政府</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>川观新闻</t>
+          <t>粉壁镇人民政府</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>泥龙镇人民政府</t>
+          <t>县退役军人事务局</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2635,27 +2791,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>县卫生健康局</t>
+          <t>望京镇人民政府</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>县教育科技和体育局</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>县农业农村局</t>
+          <t>县综合行政执法局</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2665,27 +2821,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>新华社</t>
+          <t>三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>四川发布</t>
+          <t>佛楼镇人民政府</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>涵水镇人民政府</t>
+          <t>江口水乡水利风景区建设管理局</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2695,7 +2851,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>泥龙镇人民政府</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2705,7 +2861,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>巴山农旅集团</t>
+          <t>县工商联</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2715,30 +2871,200 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>佛头山管理委员会</t>
+          <t>县自然资源和规划局</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>县应急管理局</t>
+          <t>县司法局</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>岳家镇人民政府</t>
+          <t>笔山镇人民政府</t>
         </is>
       </c>
       <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>县文化广播电视体育和旅游局</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>县审计局</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>新华社</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>平昌发布</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>县招商局</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>县发展和改革局</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>平昌县农业农村局</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>县人力资源和社会保障局</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>县应急管理局</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>平昌团县委</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>县民政局</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>县统计局</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
         <v>1</v>
       </c>
     </row>
